--- a/ams/cases/ieee39/ieee39_uced_vis.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_vis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FEB902-69E6-6A40-9F38-AA67C34AC6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB4849-1387-E844-9AB1-99ED0189AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="2" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="SRCost" sheetId="20" r:id="rId19"/>
     <sheet name="NSR" sheetId="19" r:id="rId20"/>
     <sheet name="NSRCost" sheetId="21" r:id="rId21"/>
+    <sheet name="DCost" sheetId="27" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="703">
   <si>
     <t>idx</t>
   </si>
@@ -2039,6 +2040,129 @@
   </si>
   <si>
     <t>38</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
+  </si>
+  <si>
+    <t>DCost_12</t>
+  </si>
+  <si>
+    <t>Dcost 12</t>
+  </si>
+  <si>
+    <t>DCost_13</t>
+  </si>
+  <si>
+    <t>Dcost 13</t>
+  </si>
+  <si>
+    <t>DCost_14</t>
+  </si>
+  <si>
+    <t>Dcost 14</t>
+  </si>
+  <si>
+    <t>DCost_15</t>
+  </si>
+  <si>
+    <t>Dcost 15</t>
+  </si>
+  <si>
+    <t>DCost_16</t>
+  </si>
+  <si>
+    <t>Dcost 16</t>
+  </si>
+  <si>
+    <t>DCost_17</t>
+  </si>
+  <si>
+    <t>Dcost 17</t>
+  </si>
+  <si>
+    <t>DCost_18</t>
+  </si>
+  <si>
+    <t>Dcost 18</t>
+  </si>
+  <si>
+    <t>DCost_19</t>
+  </si>
+  <si>
+    <t>Dcost 19</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2162,11 +2286,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2191,6 +2326,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3972,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE251D65-D62B-3A41-9B47-3FE87BF3ED69}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+    <sheetView zoomScale="129" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6731,6 +6869,421 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D92AF7F-4BB5-0B4D-A643-81358EC8F3BA}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>674</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>680</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>683</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>688</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>691</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>692</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>693</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>695</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>696</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>697</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>698</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>699</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>701</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>702</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAED24-D032-F343-85C6-ECA2DA9D6C1F}">
   <dimension ref="A1:J4"/>
@@ -6849,16 +7402,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6892,8 +7445,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6927,8 +7483,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6962,8 +7521,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6997,8 +7559,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7032,8 +7597,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7067,8 +7635,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7102,8 +7673,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7137,8 +7711,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7172,8 +7749,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7207,8 +7787,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7242,8 +7825,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7277,8 +7863,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7312,8 +7901,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7347,8 +7939,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7382,8 +7977,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7417,8 +8015,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7452,8 +8053,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7487,8 +8091,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7522,8 +8129,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7555,6 +8165,9 @@
         <v>0.8</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>

--- a/ams/cases/ieee39/ieee39_uced_vis.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_vis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB4849-1387-E844-9AB1-99ED0189AF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59284D84-C96E-1247-9813-115EAB212C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="2" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="Zone" sheetId="8" r:id="rId9"/>
     <sheet name="UCTSlot" sheetId="13" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId11"/>
     <sheet name="GCost" sheetId="6" r:id="rId12"/>
@@ -6873,7 +6873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D92AF7F-4BB5-0B4D-A643-81358EC8F3BA}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -13274,7 +13274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced_vis.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_vis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59284D84-C96E-1247-9813-115EAB212C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6135E4B3-C90A-9041-8987-0B051AD0AD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4340" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -2301,7 +2301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2328,6 +2328,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3933,7 +3936,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4111,7 +4114,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="129" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4136,7 +4139,7 @@
         <v>519</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4158,8 +4161,8 @@
       <c r="F2" s="2">
         <v>78</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
+      <c r="G2" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4181,8 +4184,8 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
+      <c r="G3" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4335,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:G3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4361,7 +4364,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4383,8 +4386,8 @@
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
+      <c r="G2" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4406,8 +4409,8 @@
       <c r="F3" s="2">
         <v>0.05</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
+      <c r="G3" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4657,7 +4660,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4679,7 +4682,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4698,8 +4701,8 @@
       <c r="E2" s="6">
         <v>0.03</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4718,8 +4721,8 @@
       <c r="E3" s="6">
         <v>0.03</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +6598,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6617,7 +6620,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6636,8 +6639,8 @@
       <c r="E2" s="6">
         <v>0.05</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -6656,8 +6659,8 @@
       <c r="E3" s="6">
         <v>0.05</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -13217,7 +13220,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13274,7 +13277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
